--- a/src/doc/计科2307-赵桓-工作计划表（个人）.xlsx
+++ b/src/doc/计科2307-赵桓-工作计划表（个人）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\111\one\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\111\one\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF68FF5-A6C9-47B6-9FA5-A5FB7CC9A909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5A7CBD-F6C8-4076-8F33-B9D8EE4CD42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,6 +99,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -107,12 +108,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -210,6 +213,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -224,9 +230,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,7 +714,7 @@
   <dimension ref="B1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -721,16 +724,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -759,51 +762,57 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>12.25</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>12.28</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>12.31</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -811,9 +820,9 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -821,9 +830,9 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -831,9 +840,9 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -841,9 +850,9 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
